--- a/RAMBO Controller/Old EEPROM/EEPROM Settings.xlsx
+++ b/RAMBO Controller/Old EEPROM/EEPROM Settings.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darren.pruitt\Dropbox\3D Print\Rostock Max\Eeprom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darren.pruitt\Dropbox\Maker\3D Print\Github\RostockMaxV2_Duet\RAMBO Controller\Old EEPROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="0" windowWidth="27750" windowHeight="14310" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="2184" yWindow="0" windowWidth="27756" windowHeight="14316" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="EEProm lookup" sheetId="3" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="2015.06.07" sheetId="8" r:id="rId6"/>
     <sheet name="2015.09.13 (01)" sheetId="9" r:id="rId7"/>
     <sheet name="2015.09.13 (02)" sheetId="10" r:id="rId8"/>
+    <sheet name="2016.02.26" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="354">
   <si>
     <t>EPR:2</t>
   </si>
@@ -1098,7 +1099,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1905,6 +1906,19 @@
 </table>
 </file>
 
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A1:D72" totalsRowShown="0">
+  <autoFilter ref="A1:D72"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="DataType"/>
+    <tableColumn id="2" name="Position"/>
+    <tableColumn id="3" name="Value"/>
+    <tableColumn id="4" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2174,14 +2188,14 @@
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>260</v>
       </c>
@@ -2195,7 +2209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2209,7 +2223,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2223,7 +2237,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2237,7 +2251,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2251,7 +2265,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2259,7 +2273,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -2267,7 +2281,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -2275,7 +2289,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -2283,7 +2297,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -2291,7 +2305,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>15</v>
       </c>
@@ -2299,7 +2313,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>16</v>
       </c>
@@ -2307,7 +2321,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>17</v>
       </c>
@@ -2315,7 +2329,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>18</v>
       </c>
@@ -2323,7 +2337,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>19</v>
       </c>
@@ -2331,7 +2345,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -2339,7 +2353,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>23</v>
       </c>
@@ -2347,7 +2361,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>26</v>
       </c>
@@ -2355,7 +2369,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>27</v>
       </c>
@@ -2363,7 +2377,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>30</v>
       </c>
@@ -2371,7 +2385,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>31</v>
       </c>
@@ -2379,7 +2393,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>35</v>
       </c>
@@ -2387,7 +2401,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>39</v>
       </c>
@@ -2395,7 +2409,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>41</v>
       </c>
@@ -2403,7 +2417,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45</v>
       </c>
@@ -2411,7 +2425,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>46</v>
       </c>
@@ -2419,7 +2433,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>47</v>
       </c>
@@ -2427,7 +2441,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>50</v>
       </c>
@@ -2435,7 +2449,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>51</v>
       </c>
@@ -2443,7 +2457,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>52</v>
       </c>
@@ -2451,7 +2465,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>54</v>
       </c>
@@ -2460,7 +2474,7 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>55</v>
       </c>
@@ -2469,7 +2483,7 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>58</v>
       </c>
@@ -2478,7 +2492,7 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>59</v>
       </c>
@@ -2487,7 +2501,7 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>63</v>
       </c>
@@ -2496,7 +2510,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>67</v>
       </c>
@@ -2504,7 +2518,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>71</v>
       </c>
@@ -2512,7 +2526,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>75</v>
       </c>
@@ -2520,7 +2534,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>79</v>
       </c>
@@ -2528,7 +2542,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>83</v>
       </c>
@@ -2536,7 +2550,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>90</v>
       </c>
@@ -2544,7 +2558,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>95</v>
       </c>
@@ -2552,7 +2566,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>100</v>
       </c>
@@ -2560,7 +2574,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>104</v>
       </c>
@@ -2568,7 +2582,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>105</v>
       </c>
@@ -2576,7 +2590,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>106</v>
       </c>
@@ -2584,7 +2598,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>107</v>
       </c>
@@ -2592,7 +2606,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>108</v>
       </c>
@@ -2600,7 +2614,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>112</v>
       </c>
@@ -2608,7 +2622,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>116</v>
       </c>
@@ -2616,7 +2630,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>120</v>
       </c>
@@ -2624,7 +2638,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>124</v>
       </c>
@@ -2632,7 +2646,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>125</v>
       </c>
@@ -2640,7 +2654,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>129</v>
       </c>
@@ -2648,7 +2662,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>133</v>
       </c>
@@ -2656,7 +2670,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>137</v>
       </c>
@@ -2664,7 +2678,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>141</v>
       </c>
@@ -2672,7 +2686,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>145</v>
       </c>
@@ -2680,7 +2694,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>149</v>
       </c>
@@ -2688,7 +2702,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>153</v>
       </c>
@@ -2696,7 +2710,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>157</v>
       </c>
@@ -2704,7 +2718,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>161</v>
       </c>
@@ -2712,7 +2726,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>165</v>
       </c>
@@ -2720,7 +2734,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>200</v>
       </c>
@@ -2728,7 +2742,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>800</v>
       </c>
@@ -2736,7 +2750,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>804</v>
       </c>
@@ -2744,7 +2758,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>808</v>
       </c>
@@ -2752,7 +2766,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>812</v>
       </c>
@@ -2760,7 +2774,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>816</v>
       </c>
@@ -2768,7 +2782,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>820</v>
       </c>
@@ -2776,7 +2790,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>824</v>
       </c>
@@ -2784,7 +2798,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>828</v>
       </c>
@@ -2792,7 +2806,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>832</v>
       </c>
@@ -2800,7 +2814,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>836</v>
       </c>
@@ -2808,7 +2822,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>840</v>
       </c>
@@ -2816,7 +2830,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>844</v>
       </c>
@@ -2824,7 +2838,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>880</v>
       </c>
@@ -2832,7 +2846,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>881</v>
       </c>
@@ -2840,7 +2854,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>885</v>
       </c>
@@ -2848,7 +2862,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>889</v>
       </c>
@@ -2856,7 +2870,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>891</v>
       </c>
@@ -2864,7 +2878,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>893</v>
       </c>
@@ -2872,7 +2886,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>895</v>
       </c>
@@ -2880,7 +2894,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>897</v>
       </c>
@@ -2888,7 +2902,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>901</v>
       </c>
@@ -2896,7 +2910,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>905</v>
       </c>
@@ -2904,7 +2918,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>909</v>
       </c>
@@ -2912,7 +2926,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>913</v>
       </c>
@@ -2920,7 +2934,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>917</v>
       </c>
@@ -2928,7 +2942,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>921</v>
       </c>
@@ -2936,7 +2950,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>925</v>
       </c>
@@ -2944,7 +2958,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>929</v>
       </c>
@@ -2952,7 +2966,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>933</v>
       </c>
@@ -2960,7 +2974,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>937</v>
       </c>
@@ -2968,7 +2982,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>941</v>
       </c>
@@ -2976,7 +2990,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>946</v>
       </c>
@@ -2984,7 +2998,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>976</v>
       </c>
@@ -2992,7 +3006,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>980</v>
       </c>
@@ -3000,7 +3014,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>984</v>
       </c>
@@ -3008,7 +3022,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>988</v>
       </c>
@@ -3016,7 +3030,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>992</v>
       </c>
@@ -3024,7 +3038,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>996</v>
       </c>
@@ -3032,7 +3046,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1000</v>
       </c>
@@ -3040,7 +3054,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>1004</v>
       </c>
@@ -3048,7 +3062,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>1008</v>
       </c>
@@ -3056,7 +3070,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>1012</v>
       </c>
@@ -3064,7 +3078,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>1016</v>
       </c>
@@ -3072,7 +3086,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>1020</v>
       </c>
@@ -3099,12 +3113,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -3112,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -3120,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -3128,7 +3142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -3136,7 +3150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -3144,7 +3158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -3152,7 +3166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -3160,7 +3174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -3168,7 +3182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -3176,7 +3190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -3184,7 +3198,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -3192,7 +3206,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -3200,7 +3214,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -3208,7 +3222,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -3216,7 +3230,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -3224,7 +3238,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -3232,7 +3246,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -3240,7 +3254,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -3248,7 +3262,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -3256,7 +3270,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -3264,7 +3278,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -3272,7 +3286,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -3280,7 +3294,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -3288,7 +3302,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -3323,7 +3337,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -3355,7 +3369,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>126</v>
       </c>
@@ -3363,7 +3377,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>127</v>
       </c>
@@ -3371,7 +3385,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -3379,7 +3393,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>129</v>
       </c>
@@ -3387,7 +3401,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>130</v>
       </c>
@@ -3395,7 +3409,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>131</v>
       </c>
@@ -3403,7 +3417,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>132</v>
       </c>
@@ -3411,7 +3425,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>133</v>
       </c>
@@ -3434,7 +3448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>136</v>
       </c>
@@ -3454,7 +3468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>137</v>
       </c>
@@ -3462,7 +3476,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>138</v>
       </c>
@@ -3470,7 +3484,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>139</v>
       </c>
@@ -3478,7 +3492,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>140</v>
       </c>
@@ -3486,7 +3500,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>141</v>
       </c>
@@ -3494,7 +3508,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -3502,7 +3516,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>143</v>
       </c>
@@ -3510,7 +3524,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -3518,7 +3532,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>145</v>
       </c>
@@ -3526,7 +3540,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -3534,7 +3548,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>147</v>
       </c>
@@ -3542,7 +3556,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>148</v>
       </c>
@@ -3550,7 +3564,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>149</v>
       </c>
@@ -3558,7 +3572,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -3566,7 +3580,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>151</v>
       </c>
@@ -3574,7 +3588,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>152</v>
       </c>
@@ -3582,7 +3596,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>153</v>
       </c>
@@ -3590,7 +3604,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>154</v>
       </c>
@@ -3598,7 +3612,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>155</v>
       </c>
@@ -3606,7 +3620,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>156</v>
       </c>
@@ -3614,7 +3628,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>157</v>
       </c>
@@ -3622,7 +3636,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>158</v>
       </c>
@@ -3630,7 +3644,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>159</v>
       </c>
@@ -3638,7 +3652,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>160</v>
       </c>
@@ -3646,7 +3660,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>161</v>
       </c>
@@ -3654,7 +3668,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>162</v>
       </c>
@@ -3662,7 +3676,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>163</v>
       </c>
@@ -3670,7 +3684,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>164</v>
       </c>
@@ -3678,7 +3692,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>165</v>
       </c>
@@ -3686,7 +3700,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>166</v>
       </c>
@@ -3694,7 +3708,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>167</v>
       </c>
@@ -3702,7 +3716,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>168</v>
       </c>
@@ -3710,7 +3724,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>169</v>
       </c>
@@ -3718,7 +3732,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>170</v>
       </c>
@@ -3726,7 +3740,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>171</v>
       </c>
@@ -3734,7 +3748,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>172</v>
       </c>
@@ -3742,7 +3756,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>173</v>
       </c>
@@ -3750,7 +3764,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>174</v>
       </c>
@@ -3758,7 +3772,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>175</v>
       </c>
@@ -3766,7 +3780,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>176</v>
       </c>
@@ -3774,7 +3788,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>177</v>
       </c>
@@ -3812,7 +3826,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>110</v>
       </c>
@@ -3823,7 +3837,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>185</v>
       </c>
@@ -3831,7 +3845,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>186</v>
       </c>
@@ -3839,7 +3853,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>187</v>
       </c>
@@ -3847,7 +3861,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>188</v>
       </c>
@@ -3855,7 +3869,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>189</v>
       </c>
@@ -3863,7 +3877,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>190</v>
       </c>
@@ -3871,7 +3885,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>191</v>
       </c>
@@ -3879,7 +3893,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>192</v>
       </c>
@@ -3887,7 +3901,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>193</v>
       </c>
@@ -3895,7 +3909,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>194</v>
       </c>
@@ -3903,7 +3917,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>195</v>
       </c>
@@ -3911,7 +3925,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>196</v>
       </c>
@@ -3919,7 +3933,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>197</v>
       </c>
@@ -3933,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>200</v>
       </c>
@@ -3941,7 +3955,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>202</v>
       </c>
@@ -3949,7 +3963,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>204</v>
       </c>
@@ -3957,7 +3971,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>206</v>
       </c>
@@ -3965,12 +3979,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>200</v>
       </c>
@@ -3978,7 +3992,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>202</v>
       </c>
@@ -3986,7 +4000,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>204</v>
       </c>
@@ -3994,17 +4008,17 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>211</v>
       </c>
@@ -4012,7 +4026,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -4047,7 +4061,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>219</v>
       </c>
@@ -4055,7 +4069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -4078,7 +4092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>223</v>
       </c>
@@ -4086,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>224</v>
       </c>
@@ -4094,7 +4108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>110</v>
       </c>
@@ -4117,7 +4131,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>229</v>
       </c>
@@ -4125,7 +4139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>110</v>
       </c>
@@ -4139,7 +4153,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>231</v>
       </c>
@@ -4147,7 +4161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>232</v>
       </c>
@@ -4155,7 +4169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>233</v>
       </c>
@@ -4163,7 +4177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>234</v>
       </c>
@@ -4171,7 +4185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>235</v>
       </c>
@@ -4179,7 +4193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>236</v>
       </c>
@@ -4187,7 +4201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>237</v>
       </c>
@@ -4195,7 +4209,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>238</v>
       </c>
@@ -4203,7 +4217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>239</v>
       </c>
@@ -4211,7 +4225,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>240</v>
       </c>
@@ -4219,7 +4233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>241</v>
       </c>
@@ -4227,7 +4241,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>242</v>
       </c>
@@ -4235,7 +4249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>243</v>
       </c>
@@ -4243,7 +4257,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>244</v>
       </c>
@@ -4251,7 +4265,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>245</v>
       </c>
@@ -4259,7 +4273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>246</v>
       </c>
@@ -4267,7 +4281,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>247</v>
       </c>
@@ -4275,7 +4289,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>110</v>
       </c>
@@ -4298,7 +4312,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>252</v>
       </c>
@@ -4339,7 +4353,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>257</v>
       </c>
@@ -4347,7 +4361,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>258</v>
       </c>
@@ -4355,7 +4369,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>259</v>
       </c>
@@ -4363,7 +4377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>210</v>
       </c>
@@ -4381,21 +4395,21 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4412,7 +4426,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4430,7 +4444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4448,7 +4462,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4466,7 +4480,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -4484,7 +4498,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4502,7 +4516,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -4520,7 +4534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -4538,7 +4552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -4556,7 +4570,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4574,7 +4588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4592,7 +4606,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -4610,7 +4624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4628,7 +4642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -4646,7 +4660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -4664,7 +4678,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -4682,7 +4696,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -4700,7 +4714,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -4718,7 +4732,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -4736,7 +4750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -4754,7 +4768,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -4772,7 +4786,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -4790,7 +4804,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -4808,7 +4822,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -4826,7 +4840,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -4844,7 +4858,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -4862,7 +4876,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -4880,7 +4894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -4898,7 +4912,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -4916,7 +4930,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -4934,7 +4948,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -4952,7 +4966,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -4970,7 +4984,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -4988,7 +5002,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -5006,7 +5020,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -5024,7 +5038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -5042,7 +5056,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -5060,7 +5074,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -5078,7 +5092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -5096,7 +5110,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -5114,7 +5128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -5132,7 +5146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -5150,7 +5164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -5168,7 +5182,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -5186,7 +5200,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -5204,7 +5218,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -5222,7 +5236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -5240,7 +5254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -5258,7 +5272,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -5276,7 +5290,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -5294,7 +5308,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -5312,7 +5326,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -5330,7 +5344,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -5348,7 +5362,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -5366,7 +5380,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -5384,7 +5398,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -5402,7 +5416,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -5420,7 +5434,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -5438,7 +5452,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -5456,7 +5470,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -5474,7 +5488,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -5492,7 +5506,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -5510,7 +5524,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -5528,7 +5542,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -5546,7 +5560,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -5564,7 +5578,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -5582,7 +5596,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -5600,7 +5614,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -5636,17 +5650,17 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>341</v>
       </c>
@@ -5666,7 +5680,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5688,7 +5702,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5710,7 +5724,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5732,7 +5746,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5754,7 +5768,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -5776,7 +5790,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5798,7 +5812,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -5820,7 +5834,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -5842,7 +5856,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -5864,7 +5878,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -5886,7 +5900,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -5908,7 +5922,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -5930,7 +5944,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5952,7 +5966,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -5974,7 +5988,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5996,7 +6010,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -6018,7 +6032,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -6040,7 +6054,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -6062,7 +6076,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -6084,7 +6098,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -6106,7 +6120,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -6128,7 +6142,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -6150,7 +6164,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -6172,7 +6186,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -6194,7 +6208,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -6216,7 +6230,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -6238,7 +6252,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -6260,7 +6274,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -6282,7 +6296,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -6304,7 +6318,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -6326,7 +6340,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -6348,7 +6362,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -6370,7 +6384,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -6392,7 +6406,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -6414,7 +6428,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -6436,7 +6450,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -6458,7 +6472,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -6480,7 +6494,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -6502,7 +6516,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -6524,7 +6538,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -6546,7 +6560,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -6568,7 +6582,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
@@ -6590,7 +6604,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0</v>
       </c>
@@ -6612,7 +6626,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0</v>
       </c>
@@ -6634,7 +6648,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0</v>
       </c>
@@ -6656,7 +6670,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
@@ -6678,7 +6692,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
@@ -6700,7 +6714,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3</v>
       </c>
@@ -6722,7 +6736,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0</v>
       </c>
@@ -6744,7 +6758,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
@@ -6766,7 +6780,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -6788,7 +6802,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3</v>
       </c>
@@ -6810,7 +6824,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -6832,7 +6846,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
@@ -6854,7 +6868,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
@@ -6876,7 +6890,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0</v>
       </c>
@@ -6898,7 +6912,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
@@ -6920,7 +6934,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
@@ -6942,7 +6956,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
@@ -6964,7 +6978,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0</v>
       </c>
@@ -6986,7 +7000,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2</v>
       </c>
@@ -7008,7 +7022,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2</v>
       </c>
@@ -7030,7 +7044,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1</v>
       </c>
@@ -7052,7 +7066,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -7074,7 +7088,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -7096,7 +7110,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0</v>
       </c>
@@ -7118,7 +7132,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
@@ -7156,17 +7170,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>341</v>
       </c>
@@ -7186,7 +7200,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7208,7 +7222,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7230,7 +7244,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7252,7 +7266,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -7274,7 +7288,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7296,7 +7310,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -7318,7 +7332,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -7340,7 +7354,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -7362,7 +7376,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -7384,7 +7398,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -7406,7 +7420,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -7428,7 +7442,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -7450,7 +7464,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7472,7 +7486,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -7494,7 +7508,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -7516,7 +7530,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -7538,7 +7552,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -7560,7 +7574,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -7582,7 +7596,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -7604,7 +7618,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -7626,7 +7640,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -7648,7 +7662,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -7670,7 +7684,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -7692,7 +7706,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -7714,7 +7728,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -7736,7 +7750,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -7758,7 +7772,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -7780,7 +7794,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -7802,7 +7816,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -7824,7 +7838,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -7846,7 +7860,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -7868,7 +7882,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -7890,7 +7904,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -7912,7 +7926,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -7934,7 +7948,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -7956,7 +7970,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -7978,7 +7992,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -8000,7 +8014,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -8022,7 +8036,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -8044,7 +8058,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -8066,7 +8080,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -8088,7 +8102,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
@@ -8110,7 +8124,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -8132,7 +8146,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3</v>
       </c>
@@ -8154,7 +8168,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -8176,7 +8190,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
@@ -8198,7 +8212,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0</v>
       </c>
@@ -8220,7 +8234,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3</v>
       </c>
@@ -8242,7 +8256,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
@@ -8264,7 +8278,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
@@ -8286,7 +8300,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -8308,7 +8322,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0</v>
       </c>
@@ -8330,7 +8344,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
@@ -8352,7 +8366,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -8374,7 +8388,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -8396,7 +8410,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -8418,7 +8432,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0</v>
       </c>
@@ -8440,7 +8454,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
@@ -8462,7 +8476,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
@@ -8484,7 +8498,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -8506,7 +8520,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
@@ -8528,7 +8542,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0</v>
       </c>
@@ -8550,7 +8564,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0</v>
       </c>
@@ -8572,7 +8586,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0</v>
       </c>
@@ -8594,7 +8608,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3</v>
       </c>
@@ -8616,7 +8630,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3</v>
       </c>
@@ -8638,7 +8652,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
@@ -8660,7 +8674,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0</v>
       </c>
@@ -8682,7 +8696,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2</v>
       </c>
@@ -8704,7 +8718,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2</v>
       </c>
@@ -8726,7 +8740,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2</v>
       </c>
@@ -8748,7 +8762,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1</v>
       </c>
@@ -8770,7 +8784,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -8792,7 +8806,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -8814,7 +8828,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0</v>
       </c>
@@ -8853,15 +8867,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>352</v>
       </c>
@@ -8875,7 +8889,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8889,7 +8903,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -8903,7 +8917,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8917,7 +8931,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8931,7 +8945,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -8945,7 +8959,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -8959,7 +8973,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -8973,7 +8987,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -8987,7 +9001,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -9001,7 +9015,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -9015,7 +9029,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -9029,7 +9043,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -9043,7 +9057,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -9057,7 +9071,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -9071,7 +9085,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -9085,7 +9099,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -9099,7 +9113,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -9113,7 +9127,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -9127,7 +9141,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -9141,7 +9155,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -9155,7 +9169,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -9169,7 +9183,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -9183,7 +9197,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -9197,7 +9211,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -9211,7 +9225,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -9225,7 +9239,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -9239,7 +9253,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -9253,7 +9267,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -9267,7 +9281,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -9281,7 +9295,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -9295,7 +9309,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -9309,7 +9323,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -9323,7 +9337,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -9337,7 +9351,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -9351,7 +9365,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -9365,7 +9379,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -9379,7 +9393,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -9393,7 +9407,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -9407,7 +9421,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -9421,7 +9435,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -9435,7 +9449,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -9449,7 +9463,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
@@ -9463,7 +9477,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0</v>
       </c>
@@ -9477,7 +9491,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0</v>
       </c>
@@ -9491,7 +9505,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0</v>
       </c>
@@ -9505,7 +9519,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
@@ -9519,7 +9533,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
@@ -9533,7 +9547,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>3</v>
       </c>
@@ -9547,7 +9561,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0</v>
       </c>
@@ -9561,7 +9575,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
@@ -9575,7 +9589,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -9589,7 +9603,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3</v>
       </c>
@@ -9603,7 +9617,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -9617,7 +9631,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
@@ -9631,7 +9645,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
@@ -9645,7 +9659,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0</v>
       </c>
@@ -9659,7 +9673,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
@@ -9673,7 +9687,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
@@ -9687,7 +9701,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>3</v>
       </c>
@@ -9701,7 +9715,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0</v>
       </c>
@@ -9715,7 +9729,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2</v>
       </c>
@@ -9729,7 +9743,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2</v>
       </c>
@@ -9743,7 +9757,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1</v>
       </c>
@@ -9757,7 +9771,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -9771,7 +9785,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -9785,7 +9799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0</v>
       </c>
@@ -9799,7 +9813,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3</v>
       </c>
@@ -9826,19 +9840,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>352</v>
       </c>
@@ -9852,7 +9866,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -9866,7 +9880,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9880,7 +9894,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9894,7 +9908,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9908,7 +9922,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -9922,7 +9936,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -9936,7 +9950,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -9950,7 +9964,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -9964,7 +9978,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -9978,7 +9992,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -9992,7 +10006,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -10006,7 +10020,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -10020,7 +10034,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -10034,7 +10048,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -10048,7 +10062,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -10062,7 +10076,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -10076,7 +10090,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -10090,7 +10104,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -10104,7 +10118,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -10118,7 +10132,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -10132,7 +10146,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -10146,7 +10160,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -10160,7 +10174,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -10174,7 +10188,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -10188,7 +10202,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -10202,7 +10216,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -10216,7 +10230,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -10230,7 +10244,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -10244,7 +10258,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -10258,7 +10272,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -10272,7 +10286,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -10286,7 +10300,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -10300,7 +10314,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -10314,7 +10328,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -10328,7 +10342,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -10342,7 +10356,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -10356,7 +10370,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -10370,7 +10384,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -10384,7 +10398,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -10398,7 +10412,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -10412,7 +10426,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -10426,7 +10440,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
@@ -10440,7 +10454,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -10454,7 +10468,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3</v>
       </c>
@@ -10468,7 +10482,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -10482,7 +10496,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
@@ -10496,7 +10510,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0</v>
       </c>
@@ -10510,7 +10524,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
@@ -10524,7 +10538,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0</v>
       </c>
@@ -10538,7 +10552,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
@@ -10552,7 +10566,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -10566,7 +10580,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3</v>
       </c>
@@ -10580,7 +10594,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0</v>
       </c>
@@ -10594,7 +10608,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>3</v>
       </c>
@@ -10608,7 +10622,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>3</v>
       </c>
@@ -10622,7 +10636,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>3</v>
       </c>
@@ -10636,7 +10650,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="15">
         <v>3</v>
       </c>
@@ -10650,7 +10664,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0</v>
       </c>
@@ -10664,7 +10678,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0</v>
       </c>
@@ -10678,7 +10692,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0</v>
       </c>
@@ -10692,7 +10706,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
@@ -10706,7 +10720,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3</v>
       </c>
@@ -10720,7 +10734,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -10734,7 +10748,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0</v>
       </c>
@@ -10748,7 +10762,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2</v>
       </c>
@@ -10762,7 +10776,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2</v>
       </c>
@@ -10776,7 +10790,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1</v>
       </c>
@@ -10790,7 +10804,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1</v>
       </c>
@@ -10804,7 +10818,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -10818,7 +10832,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0</v>
       </c>
@@ -10832,7 +10846,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3</v>
       </c>
@@ -10859,19 +10873,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>352</v>
       </c>
@@ -10885,7 +10899,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -10899,7 +10913,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -10913,7 +10927,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10927,7 +10941,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -10941,7 +10955,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -10955,7 +10969,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -10969,7 +10983,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -10983,7 +10997,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -10997,7 +11011,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -11011,7 +11025,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -11025,7 +11039,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -11039,7 +11053,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -11053,7 +11067,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -11067,7 +11081,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -11081,7 +11095,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -11095,7 +11109,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -11109,7 +11123,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -11123,7 +11137,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -11137,7 +11151,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -11151,7 +11165,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -11165,7 +11179,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -11179,7 +11193,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -11193,7 +11207,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -11207,7 +11221,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -11221,7 +11235,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -11235,7 +11249,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -11249,7 +11263,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -11263,7 +11277,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -11277,7 +11291,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -11291,7 +11305,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -11305,7 +11319,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -11319,7 +11333,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -11333,7 +11347,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -11347,7 +11361,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -11361,7 +11375,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -11375,7 +11389,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -11389,7 +11403,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -11403,7 +11417,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -11417,7 +11431,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -11431,7 +11445,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -11445,7 +11459,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -11459,7 +11473,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3</v>
       </c>
@@ -11473,7 +11487,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -11487,7 +11501,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>3</v>
       </c>
@@ -11501,7 +11515,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -11515,7 +11529,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
@@ -11529,7 +11543,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0</v>
       </c>
@@ -11543,7 +11557,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
@@ -11557,7 +11571,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0</v>
       </c>
@@ -11571,7 +11585,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>3</v>
       </c>
@@ -11585,7 +11599,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -11599,7 +11613,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3</v>
       </c>
@@ -11613,7 +11627,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
@@ -11627,7 +11641,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -11641,7 +11655,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -11655,7 +11669,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3</v>
       </c>
@@ -11669,7 +11683,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
@@ -11683,7 +11697,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0</v>
       </c>
@@ -11697,7 +11711,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0</v>
       </c>
@@ -11711,7 +11725,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0</v>
       </c>
@@ -11725,7 +11739,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3</v>
       </c>
@@ -11739,7 +11753,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3</v>
       </c>
@@ -11753,7 +11767,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>3</v>
       </c>
@@ -11767,7 +11781,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0</v>
       </c>
@@ -11781,7 +11795,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2</v>
       </c>
@@ -11795,7 +11809,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2</v>
       </c>
@@ -11809,7 +11823,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1</v>
       </c>
@@ -11823,7 +11837,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1</v>
       </c>
@@ -11837,7 +11851,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -11851,7 +11865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0</v>
       </c>
@@ -11865,9 +11879,1042 @@
         <v>332</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3</v>
+      </c>
+      <c r="B72">
+        <v>246</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D72"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <v>250000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>129</v>
+      </c>
+      <c r="C3">
+        <v>1251.712</v>
+      </c>
+      <c r="D3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>125</v>
+      </c>
+      <c r="C4">
+        <v>768950</v>
+      </c>
+      <c r="D4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>79</v>
+      </c>
+      <c r="C5">
+        <v>1800000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>83</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>300</v>
+      </c>
+      <c r="D8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>133</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>137</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>141</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>145</v>
+      </c>
+      <c r="C14">
+        <v>250</v>
+      </c>
+      <c r="D14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>149</v>
+      </c>
+      <c r="C15">
+        <v>250</v>
+      </c>
+      <c r="D15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>153</v>
+      </c>
+      <c r="C16">
+        <v>316.39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>59</v>
+      </c>
+      <c r="C17">
+        <v>1850</v>
+      </c>
+      <c r="D17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>71</v>
+      </c>
+      <c r="C18">
+        <v>3000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>881</v>
+      </c>
+      <c r="C19">
+        <v>325</v>
+      </c>
+      <c r="D19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>885</v>
+      </c>
+      <c r="C20">
+        <v>129.24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>925</v>
+      </c>
+      <c r="C21">
+        <v>200</v>
+      </c>
+      <c r="D21" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>891</v>
+      </c>
+      <c r="C22">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>889</v>
+      </c>
+      <c r="C23">
+        <v>225</v>
+      </c>
+      <c r="D23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>893</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>895</v>
+      </c>
+      <c r="C25">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>897</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>901</v>
+      </c>
+      <c r="C27">
+        <v>210</v>
+      </c>
+      <c r="D27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>905</v>
+      </c>
+      <c r="C28">
+        <v>330</v>
+      </c>
+      <c r="D28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>909</v>
+      </c>
+      <c r="C29">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>913</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>917</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>921</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>933</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>937</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>941</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>808</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>929</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>812</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>840</v>
+      </c>
+      <c r="C39">
+        <v>150</v>
+      </c>
+      <c r="D39" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>800</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>804</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>816</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>820</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+      <c r="D43" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>824</v>
+      </c>
+      <c r="C44">
+        <v>86.6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>828</v>
+      </c>
+      <c r="C45">
+        <v>-50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>832</v>
+      </c>
+      <c r="C46">
+        <v>-86.6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>836</v>
+      </c>
+      <c r="C47">
+        <v>-50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>106</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>107</v>
+      </c>
+      <c r="C49">
+        <v>255</v>
+      </c>
+      <c r="D49" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50">
+        <v>124</v>
+      </c>
+      <c r="C50">
+        <v>80</v>
+      </c>
+      <c r="D50" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>108</v>
+      </c>
+      <c r="C51">
+        <v>52.97</v>
+      </c>
+      <c r="D51" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>112</v>
+      </c>
+      <c r="C52">
+        <v>1.01</v>
+      </c>
+      <c r="D52" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>116</v>
+      </c>
+      <c r="C53">
+        <v>692.25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54">
+        <v>120</v>
+      </c>
+      <c r="C54">
+        <v>255</v>
+      </c>
+      <c r="D54" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+      <c r="C55">
+        <v>452</v>
+      </c>
+      <c r="D55" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>204</v>
+      </c>
+      <c r="C56">
+        <v>100</v>
+      </c>
+      <c r="D56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>208</v>
+      </c>
+      <c r="C57">
+        <v>45</v>
+      </c>
+      <c r="D57" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>212</v>
+      </c>
+      <c r="C58">
+        <v>6500</v>
+      </c>
+      <c r="D58" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59">
+        <v>216</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <v>217</v>
+      </c>
+      <c r="C60">
+        <v>255</v>
+      </c>
+      <c r="D60" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61">
+        <v>245</v>
+      </c>
+      <c r="C61">
+        <v>40</v>
+      </c>
+      <c r="D61" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>218</v>
+      </c>
+      <c r="C62">
+        <v>7.96</v>
+      </c>
+      <c r="D62" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>222</v>
+      </c>
+      <c r="C63">
+        <v>2.98</v>
+      </c>
+      <c r="D63" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>226</v>
+      </c>
+      <c r="C64">
+        <v>127.98</v>
+      </c>
+      <c r="D64" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>230</v>
+      </c>
+      <c r="C65">
+        <v>255</v>
+      </c>
+      <c r="D65" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>231</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>235</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <v>239</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69">
+        <v>250</v>
+      </c>
+      <c r="C69">
+        <v>150</v>
+      </c>
+      <c r="D69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70">
+        <v>252</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71">
+        <v>254</v>
+      </c>
+      <c r="C71">
+        <v>255</v>
+      </c>
+      <c r="D71" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1</v>
       </c>
       <c r="B72">
         <v>246</v>

--- a/RAMBO Controller/Old EEPROM/EEPROM Settings.xlsx
+++ b/RAMBO Controller/Old EEPROM/EEPROM Settings.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darren.pruitt\Dropbox\Maker\3D Print\Github\RostockMaxV2_Duet\RAMBO Controller\Old EEPROM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darre\Dropbox\Maker\3D Print\Github\RostockMaxV2_Duet\RAMBO Controller\Old EEPROM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2184" yWindow="0" windowWidth="27756" windowHeight="14316" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="3113" yWindow="0" windowWidth="27758" windowHeight="14318" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="EEProm lookup" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="2015.09.13 (02)" sheetId="10" r:id="rId8"/>
     <sheet name="2016.02.26" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2188,14 +2188,14 @@
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="17" max="17" width="11.88671875" customWidth="1"/>
+    <col min="17" max="17" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>260</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>12</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>15</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>16</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>17</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>18</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>19</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>23</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>26</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>27</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>30</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>31</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>35</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>39</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>41</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>45</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>46</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>47</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>50</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>51</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>52</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>54</v>
       </c>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>55</v>
       </c>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>58</v>
       </c>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>59</v>
       </c>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>63</v>
       </c>
@@ -2510,7 +2510,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>67</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>71</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>75</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>79</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>83</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>90</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>95</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>100</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>104</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>105</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>106</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>107</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>108</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>112</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>116</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>120</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>124</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>125</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>129</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>133</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>137</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>141</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>145</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>149</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>153</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>157</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>161</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>165</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>200</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>800</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>804</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>808</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>812</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>816</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>820</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>824</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>828</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>832</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>836</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>840</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>844</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>880</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>881</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>885</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>889</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>891</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>893</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>895</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>897</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>901</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>905</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>909</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>913</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>917</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>921</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>925</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>929</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>933</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>937</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>941</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>946</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>976</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>980</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>984</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>988</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>992</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>996</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>1000</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>1004</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>1008</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>1012</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>1016</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" s="2">
         <v>1020</v>
       </c>
@@ -3113,12 +3113,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>98</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>126</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>127</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>129</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>130</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>131</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>132</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>133</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>136</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>137</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>138</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>139</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>140</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>141</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>142</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>143</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>144</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>145</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>147</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>148</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>149</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>151</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>152</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>153</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>154</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>155</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>156</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>157</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>158</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>159</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>160</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>161</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>162</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>163</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>164</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>165</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>166</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>167</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>168</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>169</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>170</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>171</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>172</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>173</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>174</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>175</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>176</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>177</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>110</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>185</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>186</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>187</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>188</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>189</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>190</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>191</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>192</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>193</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>194</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>195</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>196</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>197</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>200</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>202</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>204</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>206</v>
       </c>
@@ -3979,12 +3979,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>200</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>202</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>204</v>
       </c>
@@ -4008,17 +4008,17 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>211</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>219</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>223</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>224</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>110</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>229</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>110</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>231</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>232</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>233</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>234</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>235</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>236</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>237</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>238</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>239</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>240</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>241</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>242</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>243</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>244</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>245</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>246</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>247</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>110</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>252</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>257</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>258</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>259</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>210</v>
       </c>
@@ -4395,21 +4395,21 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.46484375" customWidth="1"/>
     <col min="5" max="5" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.1328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>1</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -5650,17 +5650,17 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>341</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>3</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>3</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>3</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>3</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>3</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>3</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>3</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>3</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>3</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>3</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>3</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>3</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>3</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>3</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>3</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>3</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>3</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>3</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>3</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>3</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>3</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>3</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>3</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>3</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>3</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>0</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>0</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>0</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>0</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>3</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>3</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>3</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>0</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>3</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>3</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>3</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>3</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>0</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>0</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>0</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>3</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>3</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>3</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>0</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>2</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>1</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>1</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>1</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>0</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>3</v>
       </c>
@@ -7170,17 +7170,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="42.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>341</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>3</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>3</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>3</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>3</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>3</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>3</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>3</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>3</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>3</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>3</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>3</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>3</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>3</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>3</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>3</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>3</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>3</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>3</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>3</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>3</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>3</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>3</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>3</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>3</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>3</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>3</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>3</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>3</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>3</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>3</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>3</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>0</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>3</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>3</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>3</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>0</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>0</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>0</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>3</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>3</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>3</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>0</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>3</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>3</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>3</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>3</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>0</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>0</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>0</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>3</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>3</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>3</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>0</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>2</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>2</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>2</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>1</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>1</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>1</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>0</v>
       </c>
@@ -8867,15 +8867,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.53125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>352</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>3</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>3</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>3</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>3</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>3</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>3</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>3</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>3</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>3</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>3</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>3</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>3</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>3</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>3</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>3</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>3</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>3</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>3</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>3</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>3</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>3</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>3</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>3</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>3</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>3</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>3</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>3</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>0</v>
       </c>
@@ -9477,7 +9477,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>0</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>0</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>0</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>3</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>3</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>3</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>0</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>3</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>3</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>3</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>3</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>0</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>0</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>0</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>3</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>3</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>3</v>
       </c>
@@ -9715,7 +9715,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>0</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>2</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>2</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>1</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>1</v>
       </c>
@@ -9785,7 +9785,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>1</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>0</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>3</v>
       </c>
@@ -9844,15 +9844,15 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.53125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>352</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -9880,7 +9880,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>3</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>3</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>3</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>3</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>3</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>3</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>3</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>3</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>3</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>3</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>3</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>3</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>3</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>3</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>3</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>3</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>3</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>3</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>3</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>3</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>3</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>3</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>3</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>3</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>3</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>3</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>3</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>3</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>3</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>3</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>3</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>3</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>0</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>0</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>0</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>3</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>3</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>3</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>0</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="7">
         <v>3</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="11">
         <v>3</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="11">
         <v>3</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="15">
         <v>3</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>0</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>0</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>0</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>3</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>3</v>
       </c>
@@ -10734,7 +10734,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>3</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>0</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>2</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>2</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>1</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>1</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>1</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>0</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>3</v>
       </c>
@@ -10873,19 +10873,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.53125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>352</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>3</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>3</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>3</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>3</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>3</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>3</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>3</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>3</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>3</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>3</v>
       </c>
@@ -11109,7 +11109,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>3</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3</v>
       </c>
@@ -11137,7 +11137,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>3</v>
       </c>
@@ -11151,7 +11151,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>3</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>3</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>3</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>3</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>3</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>3</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>3</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>3</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>3</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>3</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>3</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>3</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>3</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>3</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>3</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>3</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>3</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>3</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>3</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>3</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>3</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>0</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>0</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>0</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>3</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>3</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>3</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>0</v>
       </c>
@@ -11641,7 +11641,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>3</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>3</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>3</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>3</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>0</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>0</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>0</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>3</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>3</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>3</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>0</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>2</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>2</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>1</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>1</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>1</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>0</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>3</v>
       </c>
@@ -11906,19 +11906,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>352</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -12030,7 +12030,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -12422,7 +12422,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -12436,7 +12436,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -12576,7 +12576,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -12590,7 +12590,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -12632,7 +12632,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -12646,7 +12646,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -12716,7 +12716,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -12884,7 +12884,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -12912,7 +12912,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>1</v>
       </c>
